--- a/data/trans_camb/IP43-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP43-Edad-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 0,23</t>
+          <t>-14,77; 0,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,09; -17,49</t>
+          <t>-28,58; -17,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 1,78</t>
+          <t>-11,24; 3,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,46; -14,55</t>
+          <t>-24,76; -14,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,54; -1,44</t>
+          <t>-11,16; -0,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,04; -17,56</t>
+          <t>-24,95; -17,45</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,87; 4,28</t>
+          <t>-55,48; 4,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-51,44; 13,26</t>
+          <t>-50,19; 22,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,13; -7,97</t>
+          <t>-47,31; -3,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,47; -8,3</t>
+          <t>-19,12; -8,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,23; -19,63</t>
+          <t>-28,26; -19,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,42; -4,77</t>
+          <t>-16,29; -4,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,5; -19,15</t>
+          <t>-28,29; -19,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,19; -8,75</t>
+          <t>-16,21; -8,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,11; -20,68</t>
+          <t>-26,84; -20,74</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-69,45; -39,3</t>
+          <t>-71,44; -40,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,74; -23,69</t>
+          <t>-60,42; -22,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,52; -39,07</t>
+          <t>-63,1; -38,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,65; -7,87</t>
+          <t>-20,75; -7,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-29,66; -18,09</t>
+          <t>-29,41; -18,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,65; -10,34</t>
+          <t>-23,55; -10,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-31,99; -20,52</t>
+          <t>-32,11; -20,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,39; -11,31</t>
+          <t>-19,93; -11,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,04; -21,29</t>
+          <t>-28,85; -20,95</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,25; -38,93</t>
+          <t>-73,23; -35,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,17; -46,33</t>
+          <t>-77,01; -47,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,84; -49,41</t>
+          <t>-72,09; -49,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,79; -3,51</t>
+          <t>-17,44; -3,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-27,84; -18,37</t>
+          <t>-28,72; -18,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,22; -1,1</t>
+          <t>-14,07; -0,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,12; -16,66</t>
+          <t>-27,62; -16,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,91; -4,46</t>
+          <t>-14,01; -4,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-26,22; -19,08</t>
+          <t>-25,8; -18,79</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-63,47; -16,14</t>
+          <t>-64,76; -15,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-59,72; -6,19</t>
+          <t>-56,86; -3,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-55,67; -21,35</t>
+          <t>-55,83; -22,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,12; -8,63</t>
+          <t>-15,03; -8,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-25,94; -20,9</t>
+          <t>-26,05; -20,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,74; -7,39</t>
+          <t>-14,07; -7,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-25,55; -20,28</t>
+          <t>-25,47; -20,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,5; -9,06</t>
+          <t>-13,54; -9,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-25,25; -21,36</t>
+          <t>-24,99; -21,35</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-59,72; -40,48</t>
+          <t>-59,34; -38,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,53; -34,9</t>
+          <t>-55,76; -34,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-55,61; -41,4</t>
+          <t>-55,21; -40,78</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">

--- a/data/trans_camb/IP43-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP43-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-4,84</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-19,24</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-7,22</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>-22,68</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-4,84</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-19,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 0,38</t>
+          <t>-11,43; 2,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,58; -17,19</t>
+          <t>-24,89; -14,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 3,36</t>
+          <t>-14,53; 1,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,76; -14,32</t>
+          <t>-28,61; -17,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,16; -0,75</t>
+          <t>-11,18; -0,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,95; -17,45</t>
+          <t>-25,37; -17,34</t>
         </is>
       </c>
     </row>
@@ -677,17 +677,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-25,17%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-31,84%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-25,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,48; 4,28</t>
+          <t>-50,4; 16,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,19; 22,04</t>
+          <t>-55,28; 5,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,31; -3,45</t>
+          <t>-47,56; -2,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-10,81</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-23,63</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-13,79</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>-23,86</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-10,81</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-23,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,12; -8,35</t>
+          <t>-16,27; -5,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,26; -19,65</t>
+          <t>-28,44; -19,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,29; -4,85</t>
+          <t>-18,97; -8,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,29; -19,28</t>
+          <t>-27,78; -19,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,21; -8,48</t>
+          <t>-16,64; -8,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,84; -20,74</t>
+          <t>-27,28; -21,13</t>
         </is>
       </c>
     </row>
@@ -833,17 +833,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-45,73%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-57,79%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-45,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,44; -40,71</t>
+          <t>-61,53; -25,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,42; -22,34</t>
+          <t>-70,43; -39,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,1; -38,77</t>
+          <t>-63,33; -40,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-17,02</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-26,18</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-14,22</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>-23,76</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-17,02</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-26,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,75; -7,13</t>
+          <t>-23,04; -9,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-29,41; -18,54</t>
+          <t>-32,36; -20,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,55; -10,82</t>
+          <t>-21,37; -7,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-32,11; -20,27</t>
+          <t>-29,49; -18,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,93; -11,11</t>
+          <t>-20,28; -10,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,85; -20,95</t>
+          <t>-29,21; -21,31</t>
         </is>
       </c>
     </row>
@@ -989,17 +989,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-65,01%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-59,84%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-65,01%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-73,23; -35,09</t>
+          <t>-77,21; -44,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,01; -47,71</t>
+          <t>-76,04; -39,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,09; -49,61</t>
+          <t>-73,44; -49,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-8,06</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-21,66</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-10,12</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>-22,85</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-8,06</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-21,66</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,44; -3,21</t>
+          <t>-14,67; -1,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-28,72; -18,2</t>
+          <t>-27,41; -16,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,07; -0,59</t>
+          <t>-16,45; -3,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,62; -16,84</t>
+          <t>-28,65; -18,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,01; -4,56</t>
+          <t>-13,65; -4,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,8; -18,79</t>
+          <t>-26,05; -18,77</t>
         </is>
       </c>
     </row>
@@ -1145,17 +1145,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-37,21%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-44,28%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-37,21%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-64,76; -15,24</t>
+          <t>-56,75; -2,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-56,86; -3,56</t>
+          <t>-63,49; -14,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-55,83; -22,17</t>
+          <t>-55,91; -24,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-10,48</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-22,81</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>-11,91</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>-23,37</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-10,48</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-22,81</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,03; -8,54</t>
+          <t>-13,53; -7,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-26,05; -20,83</t>
+          <t>-25,82; -20,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,07; -7,42</t>
+          <t>-15,07; -8,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-25,47; -20,3</t>
+          <t>-26,06; -20,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,54; -9,05</t>
+          <t>-13,5; -8,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-24,99; -21,35</t>
+          <t>-24,85; -21,13</t>
         </is>
       </c>
     </row>
@@ -1301,17 +1301,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-45,96%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>-50,97%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-45,96%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-59,34; -38,42</t>
+          <t>-55,03; -34,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,76; -34,48</t>
+          <t>-59,6; -41,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-55,21; -40,78</t>
+          <t>-55,23; -40,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
